--- a/base/auxils/table_generator/input/settings/settings_G_CAP_YCRAF.xlsx
+++ b/base/auxils/table_generator/input/settings/settings_G_CAP_YCRAF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Tech_type_agg1" sheetId="1" r:id="rId1"/>
@@ -4032,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" ref="D2:D33" si="0">CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4053,7 +4053,7 @@
         <v>457</v>
       </c>
       <c r="D4" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4062,7 +4062,7 @@
         <v>458</v>
       </c>
       <c r="D5" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4071,7 +4071,7 @@
         <v>459</v>
       </c>
       <c r="D6" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4080,7 +4080,7 @@
         <v>460</v>
       </c>
       <c r="D7" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
         <v>461</v>
       </c>
       <c r="D8" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4098,7 +4098,7 @@
         <v>462</v>
       </c>
       <c r="D9" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
         <v>463</v>
       </c>
       <c r="D10" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4116,7 +4116,7 @@
         <v>464</v>
       </c>
       <c r="D11" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4125,7 +4125,7 @@
         <v>465</v>
       </c>
       <c r="D12" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4134,7 +4134,7 @@
         <v>466</v>
       </c>
       <c r="D13" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4143,7 +4143,7 @@
         <v>467</v>
       </c>
       <c r="D14" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
         <v>468</v>
       </c>
       <c r="D15" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
         <v>469</v>
       </c>
       <c r="D16" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4170,7 +4170,7 @@
         <v>470</v>
       </c>
       <c r="D17" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
         <v>471</v>
       </c>
       <c r="D18" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4188,7 +4188,7 @@
         <v>472</v>
       </c>
       <c r="D19" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
         <v>473</v>
       </c>
       <c r="D20" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4206,7 +4206,7 @@
         <v>474</v>
       </c>
       <c r="D21" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4215,7 +4215,7 @@
         <v>475</v>
       </c>
       <c r="D22" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4224,7 +4224,7 @@
         <v>476</v>
       </c>
       <c r="D23" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
         <v>477</v>
       </c>
       <c r="D24" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4242,7 +4242,7 @@
         <v>478</v>
       </c>
       <c r="D25" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4251,7 +4251,7 @@
         <v>479</v>
       </c>
       <c r="D26" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>480</v>
       </c>
       <c r="D27" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
         <v>481</v>
       </c>
       <c r="D28" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4278,7 +4278,7 @@
         <v>482</v>
       </c>
       <c r="D29" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4287,7 +4287,7 @@
         <v>483</v>
       </c>
       <c r="D30" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4296,7 +4296,7 @@
         <v>484</v>
       </c>
       <c r="D31" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
         <v>485</v>
       </c>
       <c r="D32" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4314,7 +4314,7 @@
         <v>486</v>
       </c>
       <c r="D33" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="0"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4323,7 +4323,7 @@
         <v>487</v>
       </c>
       <c r="D34" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" ref="D34:D53" si="1">CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
         <v>488</v>
       </c>
       <c r="D35" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4341,7 +4341,7 @@
         <v>489</v>
       </c>
       <c r="D36" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4350,7 +4350,7 @@
         <v>490</v>
       </c>
       <c r="D37" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>491</v>
       </c>
       <c r="D38" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4368,7 +4368,7 @@
         <v>492</v>
       </c>
       <c r="D39" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4377,7 +4377,7 @@
         <v>493</v>
       </c>
       <c r="D40" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4386,7 +4386,7 @@
         <v>494</v>
       </c>
       <c r="D41" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
         <v>495</v>
       </c>
       <c r="D42" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
         <v>496</v>
       </c>
       <c r="D43" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
         <v>497</v>
       </c>
       <c r="D44" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4422,7 +4422,7 @@
         <v>498</v>
       </c>
       <c r="D45" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4431,7 +4431,7 @@
         <v>499</v>
       </c>
       <c r="D46" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4440,7 +4440,7 @@
         <v>500</v>
       </c>
       <c r="D47" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4449,7 +4449,7 @@
         <v>501</v>
       </c>
       <c r="D48" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4458,7 +4458,7 @@
         <v>502</v>
       </c>
       <c r="D49" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4467,7 +4467,7 @@
         <v>503</v>
       </c>
       <c r="D50" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4476,7 +4476,7 @@
         <v>504</v>
       </c>
       <c r="D51" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
         <v>505</v>
       </c>
       <c r="D52" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4494,7 +4494,7 @@
         <v>506</v>
       </c>
       <c r="D53" t="str">
-        <f>CONCATENATE("FUEL-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="1"/>
         <v>FUEL-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -4503,7 +4503,7 @@
         <v>507</v>
       </c>
       <c r="D54" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" ref="D54:D85" si="2">CONCATENATE("CHP", "_CCS")</f>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4512,7 +4512,7 @@
         <v>508</v>
       </c>
       <c r="D55" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
         <v>509</v>
       </c>
       <c r="D56" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4530,7 +4530,7 @@
         <v>510</v>
       </c>
       <c r="D57" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4539,7 +4539,7 @@
         <v>511</v>
       </c>
       <c r="D58" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4548,7 +4548,7 @@
         <v>512</v>
       </c>
       <c r="D59" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
         <v>513</v>
       </c>
       <c r="D60" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4566,7 +4566,7 @@
         <v>514</v>
       </c>
       <c r="D61" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4575,7 +4575,7 @@
         <v>515</v>
       </c>
       <c r="D62" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4584,7 +4584,7 @@
         <v>516</v>
       </c>
       <c r="D63" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
         <v>517</v>
       </c>
       <c r="D64" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4602,7 +4602,7 @@
         <v>518</v>
       </c>
       <c r="D65" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
         <v>519</v>
       </c>
       <c r="D66" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4620,7 +4620,7 @@
         <v>520</v>
       </c>
       <c r="D67" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
         <v>521</v>
       </c>
       <c r="D68" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4638,7 +4638,7 @@
         <v>522</v>
       </c>
       <c r="D69" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4647,7 +4647,7 @@
         <v>523</v>
       </c>
       <c r="D70" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4656,7 +4656,7 @@
         <v>524</v>
       </c>
       <c r="D71" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
         <v>525</v>
       </c>
       <c r="D72" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4674,7 +4674,7 @@
         <v>526</v>
       </c>
       <c r="D73" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4683,7 +4683,7 @@
         <v>527</v>
       </c>
       <c r="D74" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4692,7 +4692,7 @@
         <v>528</v>
       </c>
       <c r="D75" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
         <v>529</v>
       </c>
       <c r="D76" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4710,7 +4710,7 @@
         <v>530</v>
       </c>
       <c r="D77" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4719,7 +4719,7 @@
         <v>531</v>
       </c>
       <c r="D78" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4728,7 +4728,7 @@
         <v>532</v>
       </c>
       <c r="D79" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
         <v>533</v>
       </c>
       <c r="D80" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4746,7 +4746,7 @@
         <v>534</v>
       </c>
       <c r="D81" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
         <v>535</v>
       </c>
       <c r="D82" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
         <v>536</v>
       </c>
       <c r="D83" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
         <v>537</v>
       </c>
       <c r="D84" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
         <v>538</v>
       </c>
       <c r="D85" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="2"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4791,7 +4791,7 @@
         <v>539</v>
       </c>
       <c r="D86" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" ref="D86:D117" si="3">CONCATENATE("CHP", "_CCS")</f>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4800,7 +4800,7 @@
         <v>540</v>
       </c>
       <c r="D87" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4809,7 +4809,7 @@
         <v>541</v>
       </c>
       <c r="D88" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4818,7 +4818,7 @@
         <v>542</v>
       </c>
       <c r="D89" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4827,7 +4827,7 @@
         <v>543</v>
       </c>
       <c r="D90" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4836,7 +4836,7 @@
         <v>544</v>
       </c>
       <c r="D91" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
         <v>545</v>
       </c>
       <c r="D92" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4854,7 +4854,7 @@
         <v>546</v>
       </c>
       <c r="D93" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4863,7 +4863,7 @@
         <v>547</v>
       </c>
       <c r="D94" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4872,7 +4872,7 @@
         <v>548</v>
       </c>
       <c r="D95" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4881,7 +4881,7 @@
         <v>549</v>
       </c>
       <c r="D96" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4890,7 +4890,7 @@
         <v>550</v>
       </c>
       <c r="D97" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4899,7 +4899,7 @@
         <v>551</v>
       </c>
       <c r="D98" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4908,7 +4908,7 @@
         <v>552</v>
       </c>
       <c r="D99" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
         <v>553</v>
       </c>
       <c r="D100" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
         <v>554</v>
       </c>
       <c r="D101" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4935,7 +4935,7 @@
         <v>555</v>
       </c>
       <c r="D102" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4944,7 +4944,7 @@
         <v>556</v>
       </c>
       <c r="D103" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
         <v>557</v>
       </c>
       <c r="D104" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4962,7 +4962,7 @@
         <v>558</v>
       </c>
       <c r="D105" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4971,7 +4971,7 @@
         <v>507</v>
       </c>
       <c r="D106" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4980,7 +4980,7 @@
         <v>508</v>
       </c>
       <c r="D107" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
         <v>509</v>
       </c>
       <c r="D108" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -4998,7 +4998,7 @@
         <v>510</v>
       </c>
       <c r="D109" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5007,7 +5007,7 @@
         <v>511</v>
       </c>
       <c r="D110" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5016,7 +5016,7 @@
         <v>512</v>
       </c>
       <c r="D111" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5025,7 +5025,7 @@
         <v>513</v>
       </c>
       <c r="D112" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5034,7 +5034,7 @@
         <v>514</v>
       </c>
       <c r="D113" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5043,7 +5043,7 @@
         <v>515</v>
       </c>
       <c r="D114" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5052,7 +5052,7 @@
         <v>516</v>
       </c>
       <c r="D115" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
         <v>517</v>
       </c>
       <c r="D116" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
         <v>518</v>
       </c>
       <c r="D117" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="3"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5079,7 +5079,7 @@
         <v>519</v>
       </c>
       <c r="D118" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" ref="D118:D149" si="4">CONCATENATE("CHP", "_CCS")</f>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5088,7 +5088,7 @@
         <v>520</v>
       </c>
       <c r="D119" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
         <v>521</v>
       </c>
       <c r="D120" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5106,7 +5106,7 @@
         <v>522</v>
       </c>
       <c r="D121" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5115,7 +5115,7 @@
         <v>523</v>
       </c>
       <c r="D122" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5124,7 +5124,7 @@
         <v>524</v>
       </c>
       <c r="D123" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
         <v>525</v>
       </c>
       <c r="D124" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5142,7 +5142,7 @@
         <v>526</v>
       </c>
       <c r="D125" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5151,7 +5151,7 @@
         <v>527</v>
       </c>
       <c r="D126" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5160,7 +5160,7 @@
         <v>528</v>
       </c>
       <c r="D127" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
         <v>529</v>
       </c>
       <c r="D128" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5178,7 +5178,7 @@
         <v>530</v>
       </c>
       <c r="D129" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5187,7 +5187,7 @@
         <v>531</v>
       </c>
       <c r="D130" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5196,7 +5196,7 @@
         <v>532</v>
       </c>
       <c r="D131" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
         <v>533</v>
       </c>
       <c r="D132" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
         <v>534</v>
       </c>
       <c r="D133" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5223,7 +5223,7 @@
         <v>535</v>
       </c>
       <c r="D134" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5232,7 +5232,7 @@
         <v>536</v>
       </c>
       <c r="D135" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
         <v>537</v>
       </c>
       <c r="D136" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5250,7 +5250,7 @@
         <v>538</v>
       </c>
       <c r="D137" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5259,7 +5259,7 @@
         <v>539</v>
       </c>
       <c r="D138" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5268,7 +5268,7 @@
         <v>540</v>
       </c>
       <c r="D139" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
         <v>541</v>
       </c>
       <c r="D140" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5286,7 +5286,7 @@
         <v>542</v>
       </c>
       <c r="D141" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5295,7 +5295,7 @@
         <v>543</v>
       </c>
       <c r="D142" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5304,7 +5304,7 @@
         <v>544</v>
       </c>
       <c r="D143" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5313,7 +5313,7 @@
         <v>545</v>
       </c>
       <c r="D144" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5322,7 +5322,7 @@
         <v>546</v>
       </c>
       <c r="D145" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5331,7 +5331,7 @@
         <v>547</v>
       </c>
       <c r="D146" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5340,7 +5340,7 @@
         <v>548</v>
       </c>
       <c r="D147" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
         <v>549</v>
       </c>
       <c r="D148" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
         <v>550</v>
       </c>
       <c r="D149" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="4"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
         <v>551</v>
       </c>
       <c r="D150" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" ref="D150:D157" si="5">CONCATENATE("CHP", "_CCS")</f>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5376,7 +5376,7 @@
         <v>552</v>
       </c>
       <c r="D151" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
         <v>553</v>
       </c>
       <c r="D152" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
         <v>554</v>
       </c>
       <c r="D153" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5403,7 +5403,7 @@
         <v>555</v>
       </c>
       <c r="D154" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5412,7 +5412,7 @@
         <v>556</v>
       </c>
       <c r="D155" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5421,7 +5421,7 @@
         <v>557</v>
       </c>
       <c r="D156" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5430,7 +5430,7 @@
         <v>558</v>
       </c>
       <c r="D157" t="str">
-        <f>CONCATENATE("CHP", "_CCS")</f>
+        <f t="shared" si="5"/>
         <v>CHP_CCS</v>
       </c>
     </row>
@@ -5439,7 +5439,7 @@
         <v>559</v>
       </c>
       <c r="D158" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" ref="D158:D189" si="6">CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5448,7 +5448,7 @@
         <v>560</v>
       </c>
       <c r="D159" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5457,7 +5457,7 @@
         <v>561</v>
       </c>
       <c r="D160" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5466,7 +5466,7 @@
         <v>562</v>
       </c>
       <c r="D161" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5475,7 +5475,7 @@
         <v>563</v>
       </c>
       <c r="D162" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5484,7 +5484,7 @@
         <v>564</v>
       </c>
       <c r="D163" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
         <v>565</v>
       </c>
       <c r="D164" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5502,7 +5502,7 @@
         <v>566</v>
       </c>
       <c r="D165" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
         <v>567</v>
       </c>
       <c r="D166" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5520,7 +5520,7 @@
         <v>568</v>
       </c>
       <c r="D167" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
         <v>569</v>
       </c>
       <c r="D168" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5538,7 +5538,7 @@
         <v>570</v>
       </c>
       <c r="D169" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
         <v>571</v>
       </c>
       <c r="D170" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5556,7 +5556,7 @@
         <v>572</v>
       </c>
       <c r="D171" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
         <v>573</v>
       </c>
       <c r="D172" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5574,7 +5574,7 @@
         <v>574</v>
       </c>
       <c r="D173" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5583,7 +5583,7 @@
         <v>575</v>
       </c>
       <c r="D174" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5592,7 +5592,7 @@
         <v>576</v>
       </c>
       <c r="D175" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
         <v>577</v>
       </c>
       <c r="D176" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5610,7 +5610,7 @@
         <v>578</v>
       </c>
       <c r="D177" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5619,7 +5619,7 @@
         <v>579</v>
       </c>
       <c r="D178" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5628,7 +5628,7 @@
         <v>580</v>
       </c>
       <c r="D179" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
         <v>581</v>
       </c>
       <c r="D180" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5646,7 +5646,7 @@
         <v>582</v>
       </c>
       <c r="D181" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5655,7 +5655,7 @@
         <v>583</v>
       </c>
       <c r="D182" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5664,7 +5664,7 @@
         <v>584</v>
       </c>
       <c r="D183" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
         <v>585</v>
       </c>
       <c r="D184" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5682,7 +5682,7 @@
         <v>586</v>
       </c>
       <c r="D185" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5691,7 +5691,7 @@
         <v>587</v>
       </c>
       <c r="D186" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5700,7 +5700,7 @@
         <v>588</v>
       </c>
       <c r="D187" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
         <v>589</v>
       </c>
       <c r="D188" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5718,7 +5718,7 @@
         <v>590</v>
       </c>
       <c r="D189" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="6"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5727,7 +5727,7 @@
         <v>591</v>
       </c>
       <c r="D190" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" ref="D190:D209" si="7">CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5736,7 +5736,7 @@
         <v>592</v>
       </c>
       <c r="D191" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5745,7 +5745,7 @@
         <v>593</v>
       </c>
       <c r="D192" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5754,7 +5754,7 @@
         <v>594</v>
       </c>
       <c r="D193" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5763,7 +5763,7 @@
         <v>595</v>
       </c>
       <c r="D194" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5772,7 +5772,7 @@
         <v>596</v>
       </c>
       <c r="D195" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5781,7 +5781,7 @@
         <v>597</v>
       </c>
       <c r="D196" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5790,7 +5790,7 @@
         <v>598</v>
       </c>
       <c r="D197" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5799,7 +5799,7 @@
         <v>599</v>
       </c>
       <c r="D198" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5808,7 +5808,7 @@
         <v>600</v>
       </c>
       <c r="D199" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
         <v>601</v>
       </c>
       <c r="D200" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5826,7 +5826,7 @@
         <v>602</v>
       </c>
       <c r="D201" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5835,7 +5835,7 @@
         <v>603</v>
       </c>
       <c r="D202" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5844,7 +5844,7 @@
         <v>604</v>
       </c>
       <c r="D203" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
         <v>605</v>
       </c>
       <c r="D204" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5862,7 +5862,7 @@
         <v>606</v>
       </c>
       <c r="D205" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5871,7 +5871,7 @@
         <v>607</v>
       </c>
       <c r="D206" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5880,7 +5880,7 @@
         <v>608</v>
       </c>
       <c r="D207" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
         <v>609</v>
       </c>
       <c r="D208" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5898,7 +5898,7 @@
         <v>610</v>
       </c>
       <c r="D209" t="str">
-        <f>CONCATENATE("FUEL-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="7"/>
         <v>FUEL-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -5907,7 +5907,7 @@
         <v>8</v>
       </c>
       <c r="D210" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" ref="D210:D241" si="8">CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5916,7 +5916,7 @@
         <v>9</v>
       </c>
       <c r="D211" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
         <v>10</v>
       </c>
       <c r="D212" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5934,7 +5934,7 @@
         <v>11</v>
       </c>
       <c r="D213" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5943,7 +5943,7 @@
         <v>12</v>
       </c>
       <c r="D214" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5952,7 +5952,7 @@
         <v>13</v>
       </c>
       <c r="D215" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
         <v>14</v>
       </c>
       <c r="D216" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5970,7 +5970,7 @@
         <v>15</v>
       </c>
       <c r="D217" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5979,7 +5979,7 @@
         <v>16</v>
       </c>
       <c r="D218" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5988,7 +5988,7 @@
         <v>17</v>
       </c>
       <c r="D219" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -5997,7 +5997,7 @@
         <v>18</v>
       </c>
       <c r="D220" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6006,7 +6006,7 @@
         <v>19</v>
       </c>
       <c r="D221" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6015,7 +6015,7 @@
         <v>20</v>
       </c>
       <c r="D222" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6024,7 +6024,7 @@
         <v>21</v>
       </c>
       <c r="D223" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6033,7 +6033,7 @@
         <v>22</v>
       </c>
       <c r="D224" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6042,7 +6042,7 @@
         <v>23</v>
       </c>
       <c r="D225" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6051,7 +6051,7 @@
         <v>24</v>
       </c>
       <c r="D226" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6060,7 +6060,7 @@
         <v>25</v>
       </c>
       <c r="D227" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
         <v>26</v>
       </c>
       <c r="D228" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6078,7 +6078,7 @@
         <v>27</v>
       </c>
       <c r="D229" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6087,7 +6087,7 @@
         <v>28</v>
       </c>
       <c r="D230" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6096,7 +6096,7 @@
         <v>29</v>
       </c>
       <c r="D231" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
         <v>30</v>
       </c>
       <c r="D232" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6114,7 +6114,7 @@
         <v>31</v>
       </c>
       <c r="D233" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6123,7 +6123,7 @@
         <v>32</v>
       </c>
       <c r="D234" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6132,7 +6132,7 @@
         <v>33</v>
       </c>
       <c r="D235" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
         <v>34</v>
       </c>
       <c r="D236" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6150,7 +6150,7 @@
         <v>35</v>
       </c>
       <c r="D237" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6159,7 +6159,7 @@
         <v>36</v>
       </c>
       <c r="D238" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
         <v>37</v>
       </c>
       <c r="D239" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
         <v>38</v>
       </c>
       <c r="D240" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6186,7 +6186,7 @@
         <v>39</v>
       </c>
       <c r="D241" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="8"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6195,7 +6195,7 @@
         <v>40</v>
       </c>
       <c r="D242" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" ref="D242:D261" si="9">CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6204,7 +6204,7 @@
         <v>41</v>
       </c>
       <c r="D243" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
         <v>42</v>
       </c>
       <c r="D244" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6222,7 +6222,7 @@
         <v>43</v>
       </c>
       <c r="D245" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6231,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="D246" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6240,7 +6240,7 @@
         <v>45</v>
       </c>
       <c r="D247" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
         <v>46</v>
       </c>
       <c r="D248" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6258,7 +6258,7 @@
         <v>47</v>
       </c>
       <c r="D249" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6267,7 +6267,7 @@
         <v>48</v>
       </c>
       <c r="D250" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6276,7 +6276,7 @@
         <v>49</v>
       </c>
       <c r="D251" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
         <v>50</v>
       </c>
       <c r="D252" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
         <v>51</v>
       </c>
       <c r="D253" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6303,7 +6303,7 @@
         <v>52</v>
       </c>
       <c r="D254" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6312,7 +6312,7 @@
         <v>53</v>
       </c>
       <c r="D255" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
         <v>54</v>
       </c>
       <c r="D256" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6330,7 +6330,7 @@
         <v>55</v>
       </c>
       <c r="D257" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
         <v>56</v>
       </c>
       <c r="D258" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6348,7 +6348,7 @@
         <v>57</v>
       </c>
       <c r="D259" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
         <v>58</v>
       </c>
       <c r="D260" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6366,7 +6366,7 @@
         <v>59</v>
       </c>
       <c r="D261" t="str">
-        <f>CONCATENATE("ELECT-TO-HEAT", "_CCS")</f>
+        <f t="shared" si="9"/>
         <v>ELECT-TO-HEAT_CCS</v>
       </c>
     </row>
@@ -6375,7 +6375,7 @@
         <v>611</v>
       </c>
       <c r="D262" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D262:D293" si="10">CONCATENATE("LONGTERM-STO", "_CCS")</f>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6384,7 +6384,7 @@
         <v>612</v>
       </c>
       <c r="D263" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
         <v>613</v>
       </c>
       <c r="D264" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6402,7 +6402,7 @@
         <v>614</v>
       </c>
       <c r="D265" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6411,7 +6411,7 @@
         <v>615</v>
       </c>
       <c r="D266" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6420,7 +6420,7 @@
         <v>616</v>
       </c>
       <c r="D267" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6429,7 +6429,7 @@
         <v>617</v>
       </c>
       <c r="D268" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6438,7 +6438,7 @@
         <v>618</v>
       </c>
       <c r="D269" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6447,7 +6447,7 @@
         <v>619</v>
       </c>
       <c r="D270" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6456,7 +6456,7 @@
         <v>620</v>
       </c>
       <c r="D271" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6465,7 +6465,7 @@
         <v>621</v>
       </c>
       <c r="D272" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6474,7 +6474,7 @@
         <v>622</v>
       </c>
       <c r="D273" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6483,7 +6483,7 @@
         <v>623</v>
       </c>
       <c r="D274" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6492,7 +6492,7 @@
         <v>624</v>
       </c>
       <c r="D275" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
         <v>625</v>
       </c>
       <c r="D276" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6510,7 +6510,7 @@
         <v>626</v>
       </c>
       <c r="D277" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6519,7 +6519,7 @@
         <v>627</v>
       </c>
       <c r="D278" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6528,7 +6528,7 @@
         <v>628</v>
       </c>
       <c r="D279" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
         <v>629</v>
       </c>
       <c r="D280" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6546,7 +6546,7 @@
         <v>630</v>
       </c>
       <c r="D281" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6555,7 +6555,7 @@
         <v>631</v>
       </c>
       <c r="D282" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6564,7 +6564,7 @@
         <v>632</v>
       </c>
       <c r="D283" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
         <v>633</v>
       </c>
       <c r="D284" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6582,7 +6582,7 @@
         <v>634</v>
       </c>
       <c r="D285" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6591,7 +6591,7 @@
         <v>635</v>
       </c>
       <c r="D286" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6600,7 +6600,7 @@
         <v>636</v>
       </c>
       <c r="D287" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
         <v>637</v>
       </c>
       <c r="D288" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6618,7 +6618,7 @@
         <v>638</v>
       </c>
       <c r="D289" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6627,7 +6627,7 @@
         <v>639</v>
       </c>
       <c r="D290" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6636,7 +6636,7 @@
         <v>640</v>
       </c>
       <c r="D291" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
         <v>641</v>
       </c>
       <c r="D292" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6654,7 +6654,7 @@
         <v>642</v>
       </c>
       <c r="D293" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="10"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6663,7 +6663,7 @@
         <v>643</v>
       </c>
       <c r="D294" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D294:D313" si="11">CONCATENATE("LONGTERM-STO", "_CCS")</f>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6672,7 +6672,7 @@
         <v>644</v>
       </c>
       <c r="D295" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
         <v>645</v>
       </c>
       <c r="D296" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6690,7 +6690,7 @@
         <v>646</v>
       </c>
       <c r="D297" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6699,7 +6699,7 @@
         <v>647</v>
       </c>
       <c r="D298" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
         <v>648</v>
       </c>
       <c r="D299" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
         <v>649</v>
       </c>
       <c r="D300" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6726,7 +6726,7 @@
         <v>650</v>
       </c>
       <c r="D301" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6735,7 +6735,7 @@
         <v>651</v>
       </c>
       <c r="D302" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6744,7 +6744,7 @@
         <v>652</v>
       </c>
       <c r="D303" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
         <v>653</v>
       </c>
       <c r="D304" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6762,7 +6762,7 @@
         <v>654</v>
       </c>
       <c r="D305" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6771,7 +6771,7 @@
         <v>655</v>
       </c>
       <c r="D306" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6780,7 +6780,7 @@
         <v>656</v>
       </c>
       <c r="D307" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
         <v>657</v>
       </c>
       <c r="D308" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6798,7 +6798,7 @@
         <v>658</v>
       </c>
       <c r="D309" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6807,7 +6807,7 @@
         <v>659</v>
       </c>
       <c r="D310" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6816,7 +6816,7 @@
         <v>660</v>
       </c>
       <c r="D311" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
         <v>661</v>
       </c>
       <c r="D312" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6834,7 +6834,7 @@
         <v>662</v>
       </c>
       <c r="D313" t="str">
-        <f>CONCATENATE("LONGTERM-STO", "_CCS")</f>
+        <f t="shared" si="11"/>
         <v>LONGTERM-STO_CCS</v>
       </c>
     </row>
@@ -6843,7 +6843,7 @@
         <v>663</v>
       </c>
       <c r="D314" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" ref="D314:D345" si="12">CONCATENATE("HYDRO-ROR", "_CCS")</f>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6852,7 +6852,7 @@
         <v>664</v>
       </c>
       <c r="D315" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
         <v>665</v>
       </c>
       <c r="D316" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6870,7 +6870,7 @@
         <v>666</v>
       </c>
       <c r="D317" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6879,7 +6879,7 @@
         <v>667</v>
       </c>
       <c r="D318" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6888,7 +6888,7 @@
         <v>668</v>
       </c>
       <c r="D319" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
         <v>669</v>
       </c>
       <c r="D320" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
         <v>670</v>
       </c>
       <c r="D321" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
         <v>671</v>
       </c>
       <c r="D322" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6924,7 +6924,7 @@
         <v>672</v>
       </c>
       <c r="D323" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
         <v>673</v>
       </c>
       <c r="D324" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6942,7 +6942,7 @@
         <v>674</v>
       </c>
       <c r="D325" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6951,7 +6951,7 @@
         <v>675</v>
       </c>
       <c r="D326" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6960,7 +6960,7 @@
         <v>676</v>
       </c>
       <c r="D327" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
         <v>677</v>
       </c>
       <c r="D328" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6978,7 +6978,7 @@
         <v>678</v>
       </c>
       <c r="D329" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6987,7 +6987,7 @@
         <v>679</v>
       </c>
       <c r="D330" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -6996,7 +6996,7 @@
         <v>680</v>
       </c>
       <c r="D331" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
         <v>681</v>
       </c>
       <c r="D332" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7014,7 +7014,7 @@
         <v>682</v>
       </c>
       <c r="D333" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7023,7 +7023,7 @@
         <v>683</v>
       </c>
       <c r="D334" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7032,7 +7032,7 @@
         <v>684</v>
       </c>
       <c r="D335" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
         <v>685</v>
       </c>
       <c r="D336" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7050,7 +7050,7 @@
         <v>686</v>
       </c>
       <c r="D337" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7059,7 +7059,7 @@
         <v>687</v>
       </c>
       <c r="D338" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7068,7 +7068,7 @@
         <v>688</v>
       </c>
       <c r="D339" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
         <v>689</v>
       </c>
       <c r="D340" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7086,7 +7086,7 @@
         <v>690</v>
       </c>
       <c r="D341" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7095,7 +7095,7 @@
         <v>691</v>
       </c>
       <c r="D342" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7104,7 +7104,7 @@
         <v>692</v>
       </c>
       <c r="D343" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
         <v>693</v>
       </c>
       <c r="D344" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7122,7 +7122,7 @@
         <v>694</v>
       </c>
       <c r="D345" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="12"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
         <v>695</v>
       </c>
       <c r="D346" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" ref="D346:D365" si="13">CONCATENATE("HYDRO-ROR", "_CCS")</f>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7140,7 +7140,7 @@
         <v>696</v>
       </c>
       <c r="D347" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
         <v>697</v>
       </c>
       <c r="D348" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7158,7 +7158,7 @@
         <v>698</v>
       </c>
       <c r="D349" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7167,7 +7167,7 @@
         <v>699</v>
       </c>
       <c r="D350" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7176,7 +7176,7 @@
         <v>700</v>
       </c>
       <c r="D351" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
         <v>701</v>
       </c>
       <c r="D352" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7194,7 +7194,7 @@
         <v>702</v>
       </c>
       <c r="D353" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7203,7 +7203,7 @@
         <v>703</v>
       </c>
       <c r="D354" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7212,7 +7212,7 @@
         <v>704</v>
       </c>
       <c r="D355" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7221,7 +7221,7 @@
         <v>705</v>
       </c>
       <c r="D356" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7230,7 +7230,7 @@
         <v>706</v>
       </c>
       <c r="D357" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7239,7 +7239,7 @@
         <v>707</v>
       </c>
       <c r="D358" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7248,7 +7248,7 @@
         <v>708</v>
       </c>
       <c r="D359" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7257,7 +7257,7 @@
         <v>709</v>
       </c>
       <c r="D360" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7266,7 +7266,7 @@
         <v>710</v>
       </c>
       <c r="D361" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7275,7 +7275,7 @@
         <v>711</v>
       </c>
       <c r="D362" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7284,7 +7284,7 @@
         <v>712</v>
       </c>
       <c r="D363" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
         <v>713</v>
       </c>
       <c r="D364" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7302,7 +7302,7 @@
         <v>714</v>
       </c>
       <c r="D365" t="str">
-        <f>CONCATENATE("HYDRO-ROR", "_CCS")</f>
+        <f t="shared" si="13"/>
         <v>HYDRO-ROR_CCS</v>
       </c>
     </row>
@@ -7311,7 +7311,7 @@
         <v>715</v>
       </c>
       <c r="D366" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D366:D397" si="14">CONCATENATE("SHORTTERM-STO", "_CCS")</f>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
         <v>716</v>
       </c>
       <c r="D367" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
         <v>717</v>
       </c>
       <c r="D368" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7338,7 +7338,7 @@
         <v>718</v>
       </c>
       <c r="D369" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7347,7 +7347,7 @@
         <v>719</v>
       </c>
       <c r="D370" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7356,7 +7356,7 @@
         <v>720</v>
       </c>
       <c r="D371" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
         <v>721</v>
       </c>
       <c r="D372" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7374,7 +7374,7 @@
         <v>722</v>
       </c>
       <c r="D373" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7383,7 +7383,7 @@
         <v>723</v>
       </c>
       <c r="D374" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7392,7 +7392,7 @@
         <v>724</v>
       </c>
       <c r="D375" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
         <v>725</v>
       </c>
       <c r="D376" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7410,7 +7410,7 @@
         <v>726</v>
       </c>
       <c r="D377" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
         <v>727</v>
       </c>
       <c r="D378" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7428,7 +7428,7 @@
         <v>728</v>
       </c>
       <c r="D379" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
         <v>729</v>
       </c>
       <c r="D380" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7446,7 +7446,7 @@
         <v>730</v>
       </c>
       <c r="D381" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7455,7 +7455,7 @@
         <v>731</v>
       </c>
       <c r="D382" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
         <v>732</v>
       </c>
       <c r="D383" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
         <v>733</v>
       </c>
       <c r="D384" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7482,7 +7482,7 @@
         <v>734</v>
       </c>
       <c r="D385" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7491,7 +7491,7 @@
         <v>735</v>
       </c>
       <c r="D386" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7500,7 +7500,7 @@
         <v>736</v>
       </c>
       <c r="D387" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7509,7 +7509,7 @@
         <v>737</v>
       </c>
       <c r="D388" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7518,7 +7518,7 @@
         <v>738</v>
       </c>
       <c r="D389" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7527,7 +7527,7 @@
         <v>739</v>
       </c>
       <c r="D390" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7536,7 +7536,7 @@
         <v>740</v>
       </c>
       <c r="D391" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7545,7 +7545,7 @@
         <v>741</v>
       </c>
       <c r="D392" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7554,7 +7554,7 @@
         <v>742</v>
       </c>
       <c r="D393" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7563,7 +7563,7 @@
         <v>743</v>
       </c>
       <c r="D394" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7572,7 +7572,7 @@
         <v>744</v>
       </c>
       <c r="D395" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
         <v>745</v>
       </c>
       <c r="D396" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7590,7 +7590,7 @@
         <v>746</v>
       </c>
       <c r="D397" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="14"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7599,7 +7599,7 @@
         <v>747</v>
       </c>
       <c r="D398" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D398:D429" si="15">CONCATENATE("SHORTTERM-STO", "_CCS")</f>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7608,7 +7608,7 @@
         <v>748</v>
       </c>
       <c r="D399" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
         <v>749</v>
       </c>
       <c r="D400" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7626,7 +7626,7 @@
         <v>750</v>
       </c>
       <c r="D401" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7635,7 +7635,7 @@
         <v>751</v>
       </c>
       <c r="D402" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7644,7 +7644,7 @@
         <v>752</v>
       </c>
       <c r="D403" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
         <v>753</v>
       </c>
       <c r="D404" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7662,7 +7662,7 @@
         <v>754</v>
       </c>
       <c r="D405" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7671,7 +7671,7 @@
         <v>755</v>
       </c>
       <c r="D406" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7680,7 +7680,7 @@
         <v>756</v>
       </c>
       <c r="D407" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
         <v>757</v>
       </c>
       <c r="D408" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7698,7 +7698,7 @@
         <v>758</v>
       </c>
       <c r="D409" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7707,7 +7707,7 @@
         <v>759</v>
       </c>
       <c r="D410" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7716,7 +7716,7 @@
         <v>760</v>
       </c>
       <c r="D411" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
         <v>761</v>
       </c>
       <c r="D412" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7734,7 +7734,7 @@
         <v>762</v>
       </c>
       <c r="D413" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7743,7 +7743,7 @@
         <v>763</v>
       </c>
       <c r="D414" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7752,7 +7752,7 @@
         <v>764</v>
       </c>
       <c r="D415" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
         <v>765</v>
       </c>
       <c r="D416" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7770,7 +7770,7 @@
         <v>766</v>
       </c>
       <c r="D417" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7779,7 +7779,7 @@
         <v>715</v>
       </c>
       <c r="D418" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7788,7 +7788,7 @@
         <v>716</v>
       </c>
       <c r="D419" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
         <v>717</v>
       </c>
       <c r="D420" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7806,7 +7806,7 @@
         <v>718</v>
       </c>
       <c r="D421" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7815,7 +7815,7 @@
         <v>719</v>
       </c>
       <c r="D422" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7824,7 +7824,7 @@
         <v>720</v>
       </c>
       <c r="D423" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7833,7 +7833,7 @@
         <v>721</v>
       </c>
       <c r="D424" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7842,7 +7842,7 @@
         <v>722</v>
       </c>
       <c r="D425" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7851,7 +7851,7 @@
         <v>723</v>
       </c>
       <c r="D426" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
         <v>724</v>
       </c>
       <c r="D427" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
         <v>725</v>
       </c>
       <c r="D428" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7878,7 +7878,7 @@
         <v>726</v>
       </c>
       <c r="D429" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="15"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
         <v>727</v>
       </c>
       <c r="D430" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D430:D461" si="16">CONCATENATE("SHORTTERM-STO", "_CCS")</f>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7896,7 +7896,7 @@
         <v>728</v>
       </c>
       <c r="D431" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7905,7 +7905,7 @@
         <v>729</v>
       </c>
       <c r="D432" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7914,7 +7914,7 @@
         <v>730</v>
       </c>
       <c r="D433" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
         <v>731</v>
       </c>
       <c r="D434" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7932,7 +7932,7 @@
         <v>732</v>
       </c>
       <c r="D435" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
         <v>733</v>
       </c>
       <c r="D436" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7950,7 +7950,7 @@
         <v>734</v>
       </c>
       <c r="D437" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7959,7 +7959,7 @@
         <v>735</v>
       </c>
       <c r="D438" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7968,7 +7968,7 @@
         <v>736</v>
       </c>
       <c r="D439" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
         <v>737</v>
       </c>
       <c r="D440" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7986,7 +7986,7 @@
         <v>738</v>
       </c>
       <c r="D441" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -7995,7 +7995,7 @@
         <v>739</v>
       </c>
       <c r="D442" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8004,7 +8004,7 @@
         <v>740</v>
       </c>
       <c r="D443" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
         <v>741</v>
       </c>
       <c r="D444" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8022,7 +8022,7 @@
         <v>742</v>
       </c>
       <c r="D445" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8031,7 +8031,7 @@
         <v>743</v>
       </c>
       <c r="D446" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8040,7 +8040,7 @@
         <v>744</v>
       </c>
       <c r="D447" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
         <v>745</v>
       </c>
       <c r="D448" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8058,7 +8058,7 @@
         <v>746</v>
       </c>
       <c r="D449" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8067,7 +8067,7 @@
         <v>747</v>
       </c>
       <c r="D450" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8076,7 +8076,7 @@
         <v>748</v>
       </c>
       <c r="D451" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
         <v>749</v>
       </c>
       <c r="D452" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8094,7 +8094,7 @@
         <v>750</v>
       </c>
       <c r="D453" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8103,7 +8103,7 @@
         <v>751</v>
       </c>
       <c r="D454" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8112,7 +8112,7 @@
         <v>752</v>
       </c>
       <c r="D455" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
         <v>753</v>
       </c>
       <c r="D456" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8130,7 +8130,7 @@
         <v>754</v>
       </c>
       <c r="D457" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8139,7 +8139,7 @@
         <v>755</v>
       </c>
       <c r="D458" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8148,7 +8148,7 @@
         <v>756</v>
       </c>
       <c r="D459" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8157,7 +8157,7 @@
         <v>757</v>
       </c>
       <c r="D460" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8166,7 +8166,7 @@
         <v>758</v>
       </c>
       <c r="D461" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="16"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8175,7 +8175,7 @@
         <v>759</v>
       </c>
       <c r="D462" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" ref="D462:D469" si="17">CONCATENATE("SHORTTERM-STO", "_CCS")</f>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
         <v>760</v>
       </c>
       <c r="D463" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8193,7 +8193,7 @@
         <v>761</v>
       </c>
       <c r="D464" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8202,7 +8202,7 @@
         <v>762</v>
       </c>
       <c r="D465" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8211,7 +8211,7 @@
         <v>763</v>
       </c>
       <c r="D466" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8220,7 +8220,7 @@
         <v>764</v>
       </c>
       <c r="D467" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8229,7 +8229,7 @@
         <v>765</v>
       </c>
       <c r="D468" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8238,7 +8238,7 @@
         <v>766</v>
       </c>
       <c r="D469" t="str">
-        <f>CONCATENATE("SHORTTERM-STO", "_CCS")</f>
+        <f t="shared" si="17"/>
         <v>SHORTTERM-STO_CCS</v>
       </c>
     </row>
@@ -8247,7 +8247,7 @@
         <v>767</v>
       </c>
       <c r="D470" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" ref="D470:D501" si="18">CONCATENATE("SOLAR-HEAT", "_CCS")</f>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8256,7 +8256,7 @@
         <v>768</v>
       </c>
       <c r="D471" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
         <v>769</v>
       </c>
       <c r="D472" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8274,7 +8274,7 @@
         <v>770</v>
       </c>
       <c r="D473" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8283,7 +8283,7 @@
         <v>771</v>
       </c>
       <c r="D474" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8292,7 +8292,7 @@
         <v>772</v>
       </c>
       <c r="D475" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
         <v>773</v>
       </c>
       <c r="D476" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8310,7 +8310,7 @@
         <v>774</v>
       </c>
       <c r="D477" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8319,7 +8319,7 @@
         <v>775</v>
       </c>
       <c r="D478" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
         <v>776</v>
       </c>
       <c r="D479" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
         <v>777</v>
       </c>
       <c r="D480" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8346,7 +8346,7 @@
         <v>778</v>
       </c>
       <c r="D481" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8355,7 +8355,7 @@
         <v>779</v>
       </c>
       <c r="D482" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8364,7 +8364,7 @@
         <v>780</v>
       </c>
       <c r="D483" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8373,7 +8373,7 @@
         <v>781</v>
       </c>
       <c r="D484" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8382,7 +8382,7 @@
         <v>782</v>
       </c>
       <c r="D485" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8391,7 +8391,7 @@
         <v>783</v>
       </c>
       <c r="D486" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8400,7 +8400,7 @@
         <v>784</v>
       </c>
       <c r="D487" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
         <v>785</v>
       </c>
       <c r="D488" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8418,7 +8418,7 @@
         <v>786</v>
       </c>
       <c r="D489" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8427,7 +8427,7 @@
         <v>787</v>
       </c>
       <c r="D490" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8436,7 +8436,7 @@
         <v>788</v>
       </c>
       <c r="D491" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
         <v>789</v>
       </c>
       <c r="D492" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8454,7 +8454,7 @@
         <v>790</v>
       </c>
       <c r="D493" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8463,7 +8463,7 @@
         <v>791</v>
       </c>
       <c r="D494" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8472,7 +8472,7 @@
         <v>792</v>
       </c>
       <c r="D495" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
         <v>793</v>
       </c>
       <c r="D496" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8490,7 +8490,7 @@
         <v>794</v>
       </c>
       <c r="D497" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8499,7 +8499,7 @@
         <v>795</v>
       </c>
       <c r="D498" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8508,7 +8508,7 @@
         <v>796</v>
       </c>
       <c r="D499" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
         <v>797</v>
       </c>
       <c r="D500" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8526,7 +8526,7 @@
         <v>798</v>
       </c>
       <c r="D501" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="18"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8535,7 +8535,7 @@
         <v>799</v>
       </c>
       <c r="D502" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" ref="D502:D521" si="19">CONCATENATE("SOLAR-HEAT", "_CCS")</f>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8544,7 +8544,7 @@
         <v>800</v>
       </c>
       <c r="D503" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
         <v>801</v>
       </c>
       <c r="D504" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8562,7 +8562,7 @@
         <v>802</v>
       </c>
       <c r="D505" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8571,7 +8571,7 @@
         <v>803</v>
       </c>
       <c r="D506" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8580,7 +8580,7 @@
         <v>804</v>
       </c>
       <c r="D507" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8589,7 +8589,7 @@
         <v>805</v>
       </c>
       <c r="D508" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8598,7 +8598,7 @@
         <v>806</v>
       </c>
       <c r="D509" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8607,7 +8607,7 @@
         <v>807</v>
       </c>
       <c r="D510" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8616,7 +8616,7 @@
         <v>808</v>
       </c>
       <c r="D511" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
         <v>809</v>
       </c>
       <c r="D512" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8634,7 +8634,7 @@
         <v>810</v>
       </c>
       <c r="D513" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8643,7 +8643,7 @@
         <v>811</v>
       </c>
       <c r="D514" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8652,7 +8652,7 @@
         <v>812</v>
       </c>
       <c r="D515" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
         <v>813</v>
       </c>
       <c r="D516" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8670,7 +8670,7 @@
         <v>814</v>
       </c>
       <c r="D517" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
         <v>815</v>
       </c>
       <c r="D518" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8688,7 +8688,7 @@
         <v>816</v>
       </c>
       <c r="D519" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8697,7 +8697,7 @@
         <v>817</v>
       </c>
       <c r="D520" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8706,7 +8706,7 @@
         <v>818</v>
       </c>
       <c r="D521" t="str">
-        <f>CONCATENATE("SOLAR-HEAT", "_CCS")</f>
+        <f t="shared" si="19"/>
         <v>SOLAR-HEAT_CCS</v>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
         <v>60</v>
       </c>
       <c r="D522" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" ref="D522:D553" si="20">CONCATENATE("SOLAR-PV", "_CCS")</f>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8724,7 +8724,7 @@
         <v>61</v>
       </c>
       <c r="D523" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
         <v>62</v>
       </c>
       <c r="D524" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8742,7 +8742,7 @@
         <v>63</v>
       </c>
       <c r="D525" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8751,7 +8751,7 @@
         <v>64</v>
       </c>
       <c r="D526" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8760,7 +8760,7 @@
         <v>65</v>
       </c>
       <c r="D527" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
         <v>66</v>
       </c>
       <c r="D528" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8778,7 +8778,7 @@
         <v>67</v>
       </c>
       <c r="D529" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8787,7 +8787,7 @@
         <v>68</v>
       </c>
       <c r="D530" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8796,7 +8796,7 @@
         <v>69</v>
       </c>
       <c r="D531" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
         <v>70</v>
       </c>
       <c r="D532" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8814,7 +8814,7 @@
         <v>71</v>
       </c>
       <c r="D533" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8823,7 +8823,7 @@
         <v>72</v>
       </c>
       <c r="D534" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8832,7 +8832,7 @@
         <v>73</v>
       </c>
       <c r="D535" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
         <v>74</v>
       </c>
       <c r="D536" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8850,7 +8850,7 @@
         <v>75</v>
       </c>
       <c r="D537" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8859,7 +8859,7 @@
         <v>76</v>
       </c>
       <c r="D538" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8868,7 +8868,7 @@
         <v>77</v>
       </c>
       <c r="D539" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
         <v>78</v>
       </c>
       <c r="D540" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8886,7 +8886,7 @@
         <v>79</v>
       </c>
       <c r="D541" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8895,7 +8895,7 @@
         <v>80</v>
       </c>
       <c r="D542" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8904,7 +8904,7 @@
         <v>81</v>
       </c>
       <c r="D543" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
         <v>82</v>
       </c>
       <c r="D544" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8922,7 +8922,7 @@
         <v>83</v>
       </c>
       <c r="D545" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8931,7 +8931,7 @@
         <v>84</v>
       </c>
       <c r="D546" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8940,7 +8940,7 @@
         <v>85</v>
       </c>
       <c r="D547" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
         <v>86</v>
       </c>
       <c r="D548" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8958,7 +8958,7 @@
         <v>87</v>
       </c>
       <c r="D549" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8967,7 +8967,7 @@
         <v>88</v>
       </c>
       <c r="D550" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8976,7 +8976,7 @@
         <v>89</v>
       </c>
       <c r="D551" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
         <v>90</v>
       </c>
       <c r="D552" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -8994,7 +8994,7 @@
         <v>91</v>
       </c>
       <c r="D553" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="20"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9003,7 +9003,7 @@
         <v>92</v>
       </c>
       <c r="D554" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" ref="D554:D573" si="21">CONCATENATE("SOLAR-PV", "_CCS")</f>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9012,7 +9012,7 @@
         <v>93</v>
       </c>
       <c r="D555" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
         <v>94</v>
       </c>
       <c r="D556" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9030,7 +9030,7 @@
         <v>95</v>
       </c>
       <c r="D557" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9039,7 +9039,7 @@
         <v>96</v>
       </c>
       <c r="D558" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9048,7 +9048,7 @@
         <v>97</v>
       </c>
       <c r="D559" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
         <v>98</v>
       </c>
       <c r="D560" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9066,7 +9066,7 @@
         <v>99</v>
       </c>
       <c r="D561" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9075,7 +9075,7 @@
         <v>100</v>
       </c>
       <c r="D562" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9084,7 +9084,7 @@
         <v>101</v>
       </c>
       <c r="D563" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
         <v>102</v>
       </c>
       <c r="D564" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9102,7 +9102,7 @@
         <v>103</v>
       </c>
       <c r="D565" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9111,7 +9111,7 @@
         <v>104</v>
       </c>
       <c r="D566" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9120,7 +9120,7 @@
         <v>105</v>
       </c>
       <c r="D567" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
         <v>106</v>
       </c>
       <c r="D568" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9138,7 +9138,7 @@
         <v>107</v>
       </c>
       <c r="D569" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9147,7 +9147,7 @@
         <v>108</v>
       </c>
       <c r="D570" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9156,7 +9156,7 @@
         <v>109</v>
       </c>
       <c r="D571" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
         <v>110</v>
       </c>
       <c r="D572" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9174,7 +9174,7 @@
         <v>111</v>
       </c>
       <c r="D573" t="str">
-        <f>CONCATENATE("SOLAR-PV", "_CCS")</f>
+        <f t="shared" si="21"/>
         <v>SOLAR-PV_CCS</v>
       </c>
     </row>
@@ -9183,7 +9183,7 @@
         <v>112</v>
       </c>
       <c r="D574" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" ref="D574:D605" si="22">CONCATENATE("WIND-OFF", "_CCS")</f>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
         <v>113</v>
       </c>
       <c r="D575" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
         <v>114</v>
       </c>
       <c r="D576" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9210,7 +9210,7 @@
         <v>115</v>
       </c>
       <c r="D577" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9219,7 +9219,7 @@
         <v>116</v>
       </c>
       <c r="D578" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9228,7 +9228,7 @@
         <v>117</v>
       </c>
       <c r="D579" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
         <v>118</v>
       </c>
       <c r="D580" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9246,7 +9246,7 @@
         <v>119</v>
       </c>
       <c r="D581" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9255,7 +9255,7 @@
         <v>120</v>
       </c>
       <c r="D582" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9264,7 +9264,7 @@
         <v>121</v>
       </c>
       <c r="D583" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
         <v>122</v>
       </c>
       <c r="D584" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9282,7 +9282,7 @@
         <v>123</v>
       </c>
       <c r="D585" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9291,7 +9291,7 @@
         <v>124</v>
       </c>
       <c r="D586" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9300,7 +9300,7 @@
         <v>125</v>
       </c>
       <c r="D587" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
         <v>126</v>
       </c>
       <c r="D588" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9318,7 +9318,7 @@
         <v>127</v>
       </c>
       <c r="D589" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9327,7 +9327,7 @@
         <v>128</v>
       </c>
       <c r="D590" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9336,7 +9336,7 @@
         <v>129</v>
       </c>
       <c r="D591" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9345,7 +9345,7 @@
         <v>130</v>
       </c>
       <c r="D592" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9354,7 +9354,7 @@
         <v>131</v>
       </c>
       <c r="D593" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9363,7 +9363,7 @@
         <v>132</v>
       </c>
       <c r="D594" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9372,7 +9372,7 @@
         <v>133</v>
       </c>
       <c r="D595" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
         <v>134</v>
       </c>
       <c r="D596" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9390,7 +9390,7 @@
         <v>135</v>
       </c>
       <c r="D597" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9399,7 +9399,7 @@
         <v>136</v>
       </c>
       <c r="D598" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9408,7 +9408,7 @@
         <v>137</v>
       </c>
       <c r="D599" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
         <v>138</v>
       </c>
       <c r="D600" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9426,7 +9426,7 @@
         <v>139</v>
       </c>
       <c r="D601" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9435,7 +9435,7 @@
         <v>140</v>
       </c>
       <c r="D602" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9444,7 +9444,7 @@
         <v>141</v>
       </c>
       <c r="D603" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9453,7 +9453,7 @@
         <v>142</v>
       </c>
       <c r="D604" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9462,7 +9462,7 @@
         <v>143</v>
       </c>
       <c r="D605" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="22"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
         <v>144</v>
       </c>
       <c r="D606" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" ref="D606:D625" si="23">CONCATENATE("WIND-OFF", "_CCS")</f>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9480,7 +9480,7 @@
         <v>145</v>
       </c>
       <c r="D607" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
         <v>146</v>
       </c>
       <c r="D608" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9498,7 +9498,7 @@
         <v>147</v>
       </c>
       <c r="D609" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
         <v>148</v>
       </c>
       <c r="D610" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9516,7 +9516,7 @@
         <v>149</v>
       </c>
       <c r="D611" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9525,7 +9525,7 @@
         <v>150</v>
       </c>
       <c r="D612" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9534,7 +9534,7 @@
         <v>151</v>
       </c>
       <c r="D613" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9543,7 +9543,7 @@
         <v>152</v>
       </c>
       <c r="D614" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9552,7 +9552,7 @@
         <v>153</v>
       </c>
       <c r="D615" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
         <v>154</v>
       </c>
       <c r="D616" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9570,7 +9570,7 @@
         <v>155</v>
       </c>
       <c r="D617" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9579,7 +9579,7 @@
         <v>156</v>
       </c>
       <c r="D618" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9588,7 +9588,7 @@
         <v>157</v>
       </c>
       <c r="D619" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
         <v>158</v>
       </c>
       <c r="D620" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9606,7 +9606,7 @@
         <v>159</v>
       </c>
       <c r="D621" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9615,7 +9615,7 @@
         <v>160</v>
       </c>
       <c r="D622" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9624,7 +9624,7 @@
         <v>161</v>
       </c>
       <c r="D623" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
         <v>162</v>
       </c>
       <c r="D624" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9642,7 +9642,7 @@
         <v>163</v>
       </c>
       <c r="D625" t="str">
-        <f>CONCATENATE("WIND-OFF", "_CCS")</f>
+        <f t="shared" si="23"/>
         <v>WIND-OFF_CCS</v>
       </c>
     </row>
@@ -9651,7 +9651,7 @@
         <v>164</v>
       </c>
       <c r="D626" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" ref="D626:D657" si="24">CONCATENATE("WIND-ON", "_CCS")</f>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9660,7 +9660,7 @@
         <v>165</v>
       </c>
       <c r="D627" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
         <v>166</v>
       </c>
       <c r="D628" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9678,7 +9678,7 @@
         <v>167</v>
       </c>
       <c r="D629" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
         <v>168</v>
       </c>
       <c r="D630" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9696,7 +9696,7 @@
         <v>169</v>
       </c>
       <c r="D631" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
         <v>170</v>
       </c>
       <c r="D632" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9714,7 +9714,7 @@
         <v>171</v>
       </c>
       <c r="D633" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9723,7 +9723,7 @@
         <v>172</v>
       </c>
       <c r="D634" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9732,7 +9732,7 @@
         <v>173</v>
       </c>
       <c r="D635" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
         <v>174</v>
       </c>
       <c r="D636" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9750,7 +9750,7 @@
         <v>175</v>
       </c>
       <c r="D637" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9759,7 +9759,7 @@
         <v>176</v>
       </c>
       <c r="D638" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9768,7 +9768,7 @@
         <v>177</v>
       </c>
       <c r="D639" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
         <v>178</v>
       </c>
       <c r="D640" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9786,7 +9786,7 @@
         <v>179</v>
       </c>
       <c r="D641" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9795,7 +9795,7 @@
         <v>180</v>
       </c>
       <c r="D642" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9804,7 +9804,7 @@
         <v>181</v>
       </c>
       <c r="D643" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9813,7 +9813,7 @@
         <v>182</v>
       </c>
       <c r="D644" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9822,7 +9822,7 @@
         <v>183</v>
       </c>
       <c r="D645" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9831,7 +9831,7 @@
         <v>184</v>
       </c>
       <c r="D646" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
         <v>185</v>
       </c>
       <c r="D647" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
         <v>186</v>
       </c>
       <c r="D648" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9858,7 +9858,7 @@
         <v>187</v>
       </c>
       <c r="D649" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9867,7 +9867,7 @@
         <v>188</v>
       </c>
       <c r="D650" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9876,7 +9876,7 @@
         <v>189</v>
       </c>
       <c r="D651" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9885,7 +9885,7 @@
         <v>190</v>
       </c>
       <c r="D652" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9894,7 +9894,7 @@
         <v>191</v>
       </c>
       <c r="D653" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9903,7 +9903,7 @@
         <v>192</v>
       </c>
       <c r="D654" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9912,7 +9912,7 @@
         <v>193</v>
       </c>
       <c r="D655" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
         <v>194</v>
       </c>
       <c r="D656" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9930,7 +9930,7 @@
         <v>195</v>
       </c>
       <c r="D657" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="24"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9939,7 +9939,7 @@
         <v>196</v>
       </c>
       <c r="D658" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" ref="D658:D677" si="25">CONCATENATE("WIND-ON", "_CCS")</f>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9948,7 +9948,7 @@
         <v>197</v>
       </c>
       <c r="D659" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
         <v>198</v>
       </c>
       <c r="D660" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9966,7 +9966,7 @@
         <v>199</v>
       </c>
       <c r="D661" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9975,7 +9975,7 @@
         <v>200</v>
       </c>
       <c r="D662" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9984,7 +9984,7 @@
         <v>201</v>
       </c>
       <c r="D663" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -9993,7 +9993,7 @@
         <v>202</v>
       </c>
       <c r="D664" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10002,7 +10002,7 @@
         <v>203</v>
       </c>
       <c r="D665" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
         <v>204</v>
       </c>
       <c r="D666" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10020,7 +10020,7 @@
         <v>205</v>
       </c>
       <c r="D667" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10029,7 +10029,7 @@
         <v>206</v>
       </c>
       <c r="D668" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10038,7 +10038,7 @@
         <v>207</v>
       </c>
       <c r="D669" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10047,7 +10047,7 @@
         <v>208</v>
       </c>
       <c r="D670" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10056,7 +10056,7 @@
         <v>209</v>
       </c>
       <c r="D671" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
         <v>210</v>
       </c>
       <c r="D672" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10074,7 +10074,7 @@
         <v>211</v>
       </c>
       <c r="D673" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10083,7 +10083,7 @@
         <v>212</v>
       </c>
       <c r="D674" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10092,7 +10092,7 @@
         <v>213</v>
       </c>
       <c r="D675" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
         <v>214</v>
       </c>
       <c r="D676" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10110,7 +10110,7 @@
         <v>215</v>
       </c>
       <c r="D677" t="str">
-        <f>CONCATENATE("WIND-ON", "_CCS")</f>
+        <f t="shared" si="25"/>
         <v>WIND-ON_CCS</v>
       </c>
     </row>
@@ -10119,7 +10119,7 @@
         <v>819</v>
       </c>
       <c r="D678" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" ref="D678:D709" si="26">CONCATENATE("ELECT-TO-H2", "_CCS")</f>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10128,7 +10128,7 @@
         <v>820</v>
       </c>
       <c r="D679" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
         <v>821</v>
       </c>
       <c r="D680" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10146,7 +10146,7 @@
         <v>822</v>
       </c>
       <c r="D681" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10155,7 +10155,7 @@
         <v>823</v>
       </c>
       <c r="D682" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10164,7 +10164,7 @@
         <v>824</v>
       </c>
       <c r="D683" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10173,7 +10173,7 @@
         <v>825</v>
       </c>
       <c r="D684" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10182,7 +10182,7 @@
         <v>826</v>
       </c>
       <c r="D685" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
         <v>827</v>
       </c>
       <c r="D686" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10200,7 +10200,7 @@
         <v>828</v>
       </c>
       <c r="D687" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
         <v>829</v>
       </c>
       <c r="D688" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10218,7 +10218,7 @@
         <v>830</v>
       </c>
       <c r="D689" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10227,7 +10227,7 @@
         <v>831</v>
       </c>
       <c r="D690" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
         <v>832</v>
       </c>
       <c r="D691" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
         <v>833</v>
       </c>
       <c r="D692" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
         <v>834</v>
       </c>
       <c r="D693" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10263,7 +10263,7 @@
         <v>835</v>
       </c>
       <c r="D694" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10272,7 +10272,7 @@
         <v>836</v>
       </c>
       <c r="D695" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
         <v>837</v>
       </c>
       <c r="D696" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10290,7 +10290,7 @@
         <v>838</v>
       </c>
       <c r="D697" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
         <v>839</v>
       </c>
       <c r="D698" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10308,7 +10308,7 @@
         <v>840</v>
       </c>
       <c r="D699" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
         <v>841</v>
       </c>
       <c r="D700" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10326,7 +10326,7 @@
         <v>842</v>
       </c>
       <c r="D701" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10335,7 +10335,7 @@
         <v>843</v>
       </c>
       <c r="D702" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10344,7 +10344,7 @@
         <v>844</v>
       </c>
       <c r="D703" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
         <v>845</v>
       </c>
       <c r="D704" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10362,7 +10362,7 @@
         <v>846</v>
       </c>
       <c r="D705" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10371,7 +10371,7 @@
         <v>847</v>
       </c>
       <c r="D706" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10380,7 +10380,7 @@
         <v>848</v>
       </c>
       <c r="D707" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
         <v>849</v>
       </c>
       <c r="D708" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10398,7 +10398,7 @@
         <v>850</v>
       </c>
       <c r="D709" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="26"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10407,7 +10407,7 @@
         <v>851</v>
       </c>
       <c r="D710" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" ref="D710:D729" si="27">CONCATENATE("ELECT-TO-H2", "_CCS")</f>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
         <v>852</v>
       </c>
       <c r="D711" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
         <v>853</v>
       </c>
       <c r="D712" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10434,7 +10434,7 @@
         <v>854</v>
       </c>
       <c r="D713" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10443,7 +10443,7 @@
         <v>855</v>
       </c>
       <c r="D714" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10452,7 +10452,7 @@
         <v>856</v>
       </c>
       <c r="D715" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10461,7 +10461,7 @@
         <v>857</v>
       </c>
       <c r="D716" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
         <v>858</v>
       </c>
       <c r="D717" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10479,7 +10479,7 @@
         <v>859</v>
       </c>
       <c r="D718" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10488,7 +10488,7 @@
         <v>860</v>
       </c>
       <c r="D719" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10497,7 +10497,7 @@
         <v>861</v>
       </c>
       <c r="D720" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10506,7 +10506,7 @@
         <v>862</v>
       </c>
       <c r="D721" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10515,7 +10515,7 @@
         <v>863</v>
       </c>
       <c r="D722" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10524,7 +10524,7 @@
         <v>864</v>
       </c>
       <c r="D723" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
         <v>865</v>
       </c>
       <c r="D724" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10542,7 +10542,7 @@
         <v>866</v>
       </c>
       <c r="D725" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10551,7 +10551,7 @@
         <v>867</v>
       </c>
       <c r="D726" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10560,7 +10560,7 @@
         <v>868</v>
       </c>
       <c r="D727" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
         <v>869</v>
       </c>
       <c r="D728" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10578,7 +10578,7 @@
         <v>870</v>
       </c>
       <c r="D729" t="str">
-        <f>CONCATENATE("ELECT-TO-H2", "_CCS")</f>
+        <f t="shared" si="27"/>
         <v>ELECT-TO-H2_CCS</v>
       </c>
     </row>
@@ -10587,7 +10587,7 @@
         <v>871</v>
       </c>
       <c r="D730" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" ref="D730:D761" si="28">CONCATENATE("H2-TO-SNG", "_CCS")</f>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10596,7 +10596,7 @@
         <v>872</v>
       </c>
       <c r="D731" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
         <v>873</v>
       </c>
       <c r="D732" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10614,7 +10614,7 @@
         <v>874</v>
       </c>
       <c r="D733" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10623,7 +10623,7 @@
         <v>875</v>
       </c>
       <c r="D734" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10632,7 +10632,7 @@
         <v>876</v>
       </c>
       <c r="D735" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
         <v>877</v>
       </c>
       <c r="D736" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10650,7 +10650,7 @@
         <v>878</v>
       </c>
       <c r="D737" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10659,7 +10659,7 @@
         <v>879</v>
       </c>
       <c r="D738" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10668,7 +10668,7 @@
         <v>880</v>
       </c>
       <c r="D739" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10677,7 +10677,7 @@
         <v>881</v>
       </c>
       <c r="D740" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10686,7 +10686,7 @@
         <v>882</v>
       </c>
       <c r="D741" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10695,7 +10695,7 @@
         <v>883</v>
       </c>
       <c r="D742" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10704,7 +10704,7 @@
         <v>884</v>
       </c>
       <c r="D743" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
         <v>885</v>
       </c>
       <c r="D744" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10722,7 +10722,7 @@
         <v>886</v>
       </c>
       <c r="D745" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10731,7 +10731,7 @@
         <v>887</v>
       </c>
       <c r="D746" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10740,7 +10740,7 @@
         <v>888</v>
       </c>
       <c r="D747" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10749,7 +10749,7 @@
         <v>889</v>
       </c>
       <c r="D748" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10758,7 +10758,7 @@
         <v>890</v>
       </c>
       <c r="D749" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10767,7 +10767,7 @@
         <v>891</v>
       </c>
       <c r="D750" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10776,7 +10776,7 @@
         <v>892</v>
       </c>
       <c r="D751" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
         <v>893</v>
       </c>
       <c r="D752" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10794,7 +10794,7 @@
         <v>894</v>
       </c>
       <c r="D753" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10803,7 +10803,7 @@
         <v>895</v>
       </c>
       <c r="D754" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10812,7 +10812,7 @@
         <v>896</v>
       </c>
       <c r="D755" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
         <v>897</v>
       </c>
       <c r="D756" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10830,7 +10830,7 @@
         <v>898</v>
       </c>
       <c r="D757" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10839,7 +10839,7 @@
         <v>899</v>
       </c>
       <c r="D758" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10848,7 +10848,7 @@
         <v>900</v>
       </c>
       <c r="D759" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
         <v>901</v>
       </c>
       <c r="D760" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10866,7 +10866,7 @@
         <v>902</v>
       </c>
       <c r="D761" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="28"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
         <v>903</v>
       </c>
       <c r="D762" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" ref="D762:D781" si="29">CONCATENATE("H2-TO-SNG", "_CCS")</f>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10884,7 +10884,7 @@
         <v>904</v>
       </c>
       <c r="D763" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
         <v>905</v>
       </c>
       <c r="D764" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10902,7 +10902,7 @@
         <v>906</v>
       </c>
       <c r="D765" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10911,7 +10911,7 @@
         <v>907</v>
       </c>
       <c r="D766" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10920,7 +10920,7 @@
         <v>908</v>
       </c>
       <c r="D767" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
         <v>909</v>
       </c>
       <c r="D768" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10938,7 +10938,7 @@
         <v>910</v>
       </c>
       <c r="D769" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10947,7 +10947,7 @@
         <v>911</v>
       </c>
       <c r="D770" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10956,7 +10956,7 @@
         <v>912</v>
       </c>
       <c r="D771" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
         <v>913</v>
       </c>
       <c r="D772" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10974,7 +10974,7 @@
         <v>914</v>
       </c>
       <c r="D773" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10983,7 +10983,7 @@
         <v>915</v>
       </c>
       <c r="D774" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -10992,7 +10992,7 @@
         <v>916</v>
       </c>
       <c r="D775" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
         <v>917</v>
       </c>
       <c r="D776" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11010,7 +11010,7 @@
         <v>918</v>
       </c>
       <c r="D777" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11019,7 +11019,7 @@
         <v>919</v>
       </c>
       <c r="D778" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11028,7 +11028,7 @@
         <v>920</v>
       </c>
       <c r="D779" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
         <v>921</v>
       </c>
       <c r="D780" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11046,7 +11046,7 @@
         <v>922</v>
       </c>
       <c r="D781" t="str">
-        <f>CONCATENATE("H2-TO-SNG", "_CCS")</f>
+        <f t="shared" si="29"/>
         <v>H2-TO-SNG_CCS</v>
       </c>
     </row>
@@ -11055,7 +11055,7 @@
         <v>923</v>
       </c>
       <c r="D782" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" ref="D782:D813" si="30">CONCATENATE("TRANSPORT", "_CCS")</f>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11064,7 +11064,7 @@
         <v>924</v>
       </c>
       <c r="D783" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11073,7 +11073,7 @@
         <v>925</v>
       </c>
       <c r="D784" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11082,7 +11082,7 @@
         <v>926</v>
       </c>
       <c r="D785" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11091,7 +11091,7 @@
         <v>927</v>
       </c>
       <c r="D786" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11100,7 +11100,7 @@
         <v>928</v>
       </c>
       <c r="D787" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
         <v>929</v>
       </c>
       <c r="D788" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11118,7 +11118,7 @@
         <v>930</v>
       </c>
       <c r="D789" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11127,7 +11127,7 @@
         <v>931</v>
       </c>
       <c r="D790" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11136,7 +11136,7 @@
         <v>932</v>
       </c>
       <c r="D791" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
         <v>933</v>
       </c>
       <c r="D792" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11154,7 +11154,7 @@
         <v>934</v>
       </c>
       <c r="D793" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11163,7 +11163,7 @@
         <v>935</v>
       </c>
       <c r="D794" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11172,7 +11172,7 @@
         <v>936</v>
       </c>
       <c r="D795" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11181,7 +11181,7 @@
         <v>937</v>
       </c>
       <c r="D796" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11190,7 +11190,7 @@
         <v>938</v>
       </c>
       <c r="D797" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11199,7 +11199,7 @@
         <v>939</v>
       </c>
       <c r="D798" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11208,7 +11208,7 @@
         <v>940</v>
       </c>
       <c r="D799" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
         <v>941</v>
       </c>
       <c r="D800" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11226,7 +11226,7 @@
         <v>942</v>
       </c>
       <c r="D801" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11235,7 +11235,7 @@
         <v>943</v>
       </c>
       <c r="D802" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11244,7 +11244,7 @@
         <v>944</v>
       </c>
       <c r="D803" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
         <v>945</v>
       </c>
       <c r="D804" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11262,7 +11262,7 @@
         <v>946</v>
       </c>
       <c r="D805" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
         <v>947</v>
       </c>
       <c r="D806" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11280,7 +11280,7 @@
         <v>948</v>
       </c>
       <c r="D807" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
         <v>949</v>
       </c>
       <c r="D808" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11298,7 +11298,7 @@
         <v>950</v>
       </c>
       <c r="D809" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11307,7 +11307,7 @@
         <v>951</v>
       </c>
       <c r="D810" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11316,7 +11316,7 @@
         <v>952</v>
       </c>
       <c r="D811" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
         <v>953</v>
       </c>
       <c r="D812" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11334,7 +11334,7 @@
         <v>954</v>
       </c>
       <c r="D813" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="30"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11343,7 +11343,7 @@
         <v>955</v>
       </c>
       <c r="D814" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" ref="D814:D833" si="31">CONCATENATE("TRANSPORT", "_CCS")</f>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11352,7 +11352,7 @@
         <v>956</v>
       </c>
       <c r="D815" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
         <v>957</v>
       </c>
       <c r="D816" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11370,7 +11370,7 @@
         <v>958</v>
       </c>
       <c r="D817" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11379,7 +11379,7 @@
         <v>959</v>
       </c>
       <c r="D818" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11388,7 +11388,7 @@
         <v>960</v>
       </c>
       <c r="D819" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
         <v>961</v>
       </c>
       <c r="D820" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11406,7 +11406,7 @@
         <v>962</v>
       </c>
       <c r="D821" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11415,7 +11415,7 @@
         <v>963</v>
       </c>
       <c r="D822" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11424,7 +11424,7 @@
         <v>964</v>
       </c>
       <c r="D823" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11433,7 +11433,7 @@
         <v>965</v>
       </c>
       <c r="D824" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11442,7 +11442,7 @@
         <v>966</v>
       </c>
       <c r="D825" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11451,7 +11451,7 @@
         <v>967</v>
       </c>
       <c r="D826" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
         <v>968</v>
       </c>
       <c r="D827" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
         <v>969</v>
       </c>
       <c r="D828" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11478,7 +11478,7 @@
         <v>970</v>
       </c>
       <c r="D829" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11487,7 +11487,7 @@
         <v>971</v>
       </c>
       <c r="D830" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11496,7 +11496,7 @@
         <v>972</v>
       </c>
       <c r="D831" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
         <v>973</v>
       </c>
       <c r="D832" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11514,7 +11514,7 @@
         <v>974</v>
       </c>
       <c r="D833" t="str">
-        <f>CONCATENATE("TRANSPORT", "_CCS")</f>
+        <f t="shared" si="31"/>
         <v>TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11523,7 +11523,7 @@
         <v>975</v>
       </c>
       <c r="D834" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" ref="D834:D865" si="32">CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11532,7 +11532,7 @@
         <v>976</v>
       </c>
       <c r="D835" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
         <v>977</v>
       </c>
       <c r="D836" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11550,7 +11550,7 @@
         <v>978</v>
       </c>
       <c r="D837" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
         <v>979</v>
       </c>
       <c r="D838" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11568,7 +11568,7 @@
         <v>980</v>
       </c>
       <c r="D839" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
         <v>981</v>
       </c>
       <c r="D840" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11586,7 +11586,7 @@
         <v>982</v>
       </c>
       <c r="D841" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11595,7 +11595,7 @@
         <v>983</v>
       </c>
       <c r="D842" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11604,7 +11604,7 @@
         <v>984</v>
       </c>
       <c r="D843" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11613,7 +11613,7 @@
         <v>985</v>
       </c>
       <c r="D844" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11622,7 +11622,7 @@
         <v>986</v>
       </c>
       <c r="D845" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11631,7 +11631,7 @@
         <v>987</v>
       </c>
       <c r="D846" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11640,7 +11640,7 @@
         <v>988</v>
       </c>
       <c r="D847" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
         <v>989</v>
       </c>
       <c r="D848" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11658,7 +11658,7 @@
         <v>990</v>
       </c>
       <c r="D849" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11667,7 +11667,7 @@
         <v>991</v>
       </c>
       <c r="D850" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11676,7 +11676,7 @@
         <v>992</v>
       </c>
       <c r="D851" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
         <v>993</v>
       </c>
       <c r="D852" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11694,7 +11694,7 @@
         <v>994</v>
       </c>
       <c r="D853" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11703,7 +11703,7 @@
         <v>995</v>
       </c>
       <c r="D854" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11712,7 +11712,7 @@
         <v>996</v>
       </c>
       <c r="D855" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
         <v>997</v>
       </c>
       <c r="D856" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11730,7 +11730,7 @@
         <v>998</v>
       </c>
       <c r="D857" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11739,7 +11739,7 @@
         <v>999</v>
       </c>
       <c r="D858" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
         <v>1000</v>
       </c>
       <c r="D859" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
         <v>1001</v>
       </c>
       <c r="D860" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11766,7 +11766,7 @@
         <v>1002</v>
       </c>
       <c r="D861" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11775,7 +11775,7 @@
         <v>1003</v>
       </c>
       <c r="D862" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11784,7 +11784,7 @@
         <v>1004</v>
       </c>
       <c r="D863" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11793,7 +11793,7 @@
         <v>1005</v>
       </c>
       <c r="D864" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11802,7 +11802,7 @@
         <v>1006</v>
       </c>
       <c r="D865" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="32"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11811,7 +11811,7 @@
         <v>1007</v>
       </c>
       <c r="D866" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" ref="D866:D885" si="33">CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11820,7 +11820,7 @@
         <v>1008</v>
       </c>
       <c r="D867" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
         <v>1009</v>
       </c>
       <c r="D868" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11838,7 +11838,7 @@
         <v>1010</v>
       </c>
       <c r="D869" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11847,7 +11847,7 @@
         <v>1011</v>
       </c>
       <c r="D870" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11856,7 +11856,7 @@
         <v>1012</v>
       </c>
       <c r="D871" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11865,7 +11865,7 @@
         <v>1013</v>
       </c>
       <c r="D872" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11874,7 +11874,7 @@
         <v>1014</v>
       </c>
       <c r="D873" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11883,7 +11883,7 @@
         <v>1015</v>
       </c>
       <c r="D874" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11892,7 +11892,7 @@
         <v>1016</v>
       </c>
       <c r="D875" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
         <v>1017</v>
       </c>
       <c r="D876" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11910,7 +11910,7 @@
         <v>1018</v>
       </c>
       <c r="D877" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11919,7 +11919,7 @@
         <v>1019</v>
       </c>
       <c r="D878" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11928,7 +11928,7 @@
         <v>1020</v>
       </c>
       <c r="D879" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11937,7 +11937,7 @@
         <v>1021</v>
       </c>
       <c r="D880" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11946,7 +11946,7 @@
         <v>1022</v>
       </c>
       <c r="D881" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
         <v>1023</v>
       </c>
       <c r="D882" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11964,7 +11964,7 @@
         <v>1024</v>
       </c>
       <c r="D883" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11973,7 +11973,7 @@
         <v>1025</v>
       </c>
       <c r="D884" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11982,7 +11982,7 @@
         <v>1026</v>
       </c>
       <c r="D885" t="str">
-        <f>CONCATENATE("REMAINING TRANSPORT", "_CCS")</f>
+        <f t="shared" si="33"/>
         <v>REMAINING TRANSPORT_CCS</v>
       </c>
     </row>
@@ -11991,7 +11991,7 @@
         <v>1027</v>
       </c>
       <c r="D886" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" ref="D886:D917" si="34">CONCATENATE("GHG EMISSION", "_CCS")</f>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12000,7 +12000,7 @@
         <v>1028</v>
       </c>
       <c r="D887" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
         <v>1029</v>
       </c>
       <c r="D888" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12018,7 +12018,7 @@
         <v>1030</v>
       </c>
       <c r="D889" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12027,7 +12027,7 @@
         <v>1031</v>
       </c>
       <c r="D890" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12036,7 +12036,7 @@
         <v>1032</v>
       </c>
       <c r="D891" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
         <v>1033</v>
       </c>
       <c r="D892" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12054,7 +12054,7 @@
         <v>1034</v>
       </c>
       <c r="D893" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12063,7 +12063,7 @@
         <v>1035</v>
       </c>
       <c r="D894" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12072,7 +12072,7 @@
         <v>1036</v>
       </c>
       <c r="D895" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
         <v>1037</v>
       </c>
       <c r="D896" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12090,7 +12090,7 @@
         <v>1038</v>
       </c>
       <c r="D897" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12099,7 +12099,7 @@
         <v>1039</v>
       </c>
       <c r="D898" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12108,7 +12108,7 @@
         <v>1040</v>
       </c>
       <c r="D899" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
         <v>1041</v>
       </c>
       <c r="D900" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12126,7 +12126,7 @@
         <v>1042</v>
       </c>
       <c r="D901" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12135,7 +12135,7 @@
         <v>1043</v>
       </c>
       <c r="D902" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12144,7 +12144,7 @@
         <v>1044</v>
       </c>
       <c r="D903" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
         <v>1045</v>
       </c>
       <c r="D904" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12162,7 +12162,7 @@
         <v>1046</v>
       </c>
       <c r="D905" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12171,7 +12171,7 @@
         <v>1047</v>
       </c>
       <c r="D906" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12180,7 +12180,7 @@
         <v>1048</v>
       </c>
       <c r="D907" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
         <v>1049</v>
       </c>
       <c r="D908" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12198,7 +12198,7 @@
         <v>1050</v>
       </c>
       <c r="D909" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12207,7 +12207,7 @@
         <v>1051</v>
       </c>
       <c r="D910" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12216,7 +12216,7 @@
         <v>1052</v>
       </c>
       <c r="D911" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
         <v>1053</v>
       </c>
       <c r="D912" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12234,7 +12234,7 @@
         <v>1054</v>
       </c>
       <c r="D913" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12243,7 +12243,7 @@
         <v>1055</v>
       </c>
       <c r="D914" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12252,7 +12252,7 @@
         <v>1056</v>
       </c>
       <c r="D915" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
         <v>1057</v>
       </c>
       <c r="D916" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12270,7 +12270,7 @@
         <v>1058</v>
       </c>
       <c r="D917" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="34"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12279,7 +12279,7 @@
         <v>1059</v>
       </c>
       <c r="D918" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" ref="D918:D937" si="35">CONCATENATE("GHG EMISSION", "_CCS")</f>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12288,7 +12288,7 @@
         <v>1060</v>
       </c>
       <c r="D919" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12297,7 +12297,7 @@
         <v>1061</v>
       </c>
       <c r="D920" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12306,7 +12306,7 @@
         <v>1062</v>
       </c>
       <c r="D921" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12315,7 +12315,7 @@
         <v>1063</v>
       </c>
       <c r="D922" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12324,7 +12324,7 @@
         <v>1064</v>
       </c>
       <c r="D923" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
         <v>1065</v>
       </c>
       <c r="D924" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12342,7 +12342,7 @@
         <v>1066</v>
       </c>
       <c r="D925" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12351,7 +12351,7 @@
         <v>1067</v>
       </c>
       <c r="D926" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12360,7 +12360,7 @@
         <v>1068</v>
       </c>
       <c r="D927" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12369,7 +12369,7 @@
         <v>1069</v>
       </c>
       <c r="D928" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12378,7 +12378,7 @@
         <v>1070</v>
       </c>
       <c r="D929" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
         <v>1071</v>
       </c>
       <c r="D930" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12396,7 +12396,7 @@
         <v>1072</v>
       </c>
       <c r="D931" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
         <v>1073</v>
       </c>
       <c r="D932" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12414,7 +12414,7 @@
         <v>1074</v>
       </c>
       <c r="D933" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12423,7 +12423,7 @@
         <v>1075</v>
       </c>
       <c r="D934" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12432,7 +12432,7 @@
         <v>1076</v>
       </c>
       <c r="D935" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
         <v>1077</v>
       </c>
       <c r="D936" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12450,7 +12450,7 @@
         <v>1078</v>
       </c>
       <c r="D937" t="str">
-        <f>CONCATENATE("GHG EMISSION", "_CCS")</f>
+        <f t="shared" si="35"/>
         <v>GHG EMISSION_CCS</v>
       </c>
     </row>
@@ -12459,7 +12459,7 @@
         <v>1079</v>
       </c>
       <c r="D938" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" ref="D938:D969" si="36">CONCATENATE("H2-TO-ELECT", "_CCS")</f>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12468,7 +12468,7 @@
         <v>1080</v>
       </c>
       <c r="D939" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12477,7 +12477,7 @@
         <v>1081</v>
       </c>
       <c r="D940" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12486,7 +12486,7 @@
         <v>1082</v>
       </c>
       <c r="D941" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
         <v>1083</v>
       </c>
       <c r="D942" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12504,7 +12504,7 @@
         <v>1084</v>
       </c>
       <c r="D943" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12513,7 +12513,7 @@
         <v>1085</v>
       </c>
       <c r="D944" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12522,7 +12522,7 @@
         <v>1086</v>
       </c>
       <c r="D945" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12531,7 +12531,7 @@
         <v>1087</v>
       </c>
       <c r="D946" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12540,7 +12540,7 @@
         <v>1088</v>
       </c>
       <c r="D947" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12549,7 +12549,7 @@
         <v>1089</v>
       </c>
       <c r="D948" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12558,7 +12558,7 @@
         <v>1090</v>
       </c>
       <c r="D949" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12567,7 +12567,7 @@
         <v>1091</v>
       </c>
       <c r="D950" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12576,7 +12576,7 @@
         <v>1092</v>
       </c>
       <c r="D951" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12585,7 +12585,7 @@
         <v>1093</v>
       </c>
       <c r="D952" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12594,7 +12594,7 @@
         <v>1094</v>
       </c>
       <c r="D953" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12603,7 +12603,7 @@
         <v>1095</v>
       </c>
       <c r="D954" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12612,7 +12612,7 @@
         <v>1096</v>
       </c>
       <c r="D955" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
         <v>1097</v>
       </c>
       <c r="D956" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12630,7 +12630,7 @@
         <v>1098</v>
       </c>
       <c r="D957" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12639,7 +12639,7 @@
         <v>1099</v>
       </c>
       <c r="D958" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12648,7 +12648,7 @@
         <v>1100</v>
       </c>
       <c r="D959" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12657,7 +12657,7 @@
         <v>1101</v>
       </c>
       <c r="D960" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12666,7 +12666,7 @@
         <v>1102</v>
       </c>
       <c r="D961" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12675,7 +12675,7 @@
         <v>1103</v>
       </c>
       <c r="D962" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12684,7 +12684,7 @@
         <v>1104</v>
       </c>
       <c r="D963" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
         <v>1105</v>
       </c>
       <c r="D964" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12702,7 +12702,7 @@
         <v>1106</v>
       </c>
       <c r="D965" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12711,7 +12711,7 @@
         <v>1107</v>
       </c>
       <c r="D966" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12720,7 +12720,7 @@
         <v>1108</v>
       </c>
       <c r="D967" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12729,7 +12729,7 @@
         <v>1109</v>
       </c>
       <c r="D968" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12738,7 +12738,7 @@
         <v>1110</v>
       </c>
       <c r="D969" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="36"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12747,7 +12747,7 @@
         <v>1111</v>
       </c>
       <c r="D970" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" ref="D970:D989" si="37">CONCATENATE("H2-TO-ELECT", "_CCS")</f>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12756,7 +12756,7 @@
         <v>1112</v>
       </c>
       <c r="D971" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
         <v>1113</v>
       </c>
       <c r="D972" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12774,7 +12774,7 @@
         <v>1114</v>
       </c>
       <c r="D973" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12783,7 +12783,7 @@
         <v>1115</v>
       </c>
       <c r="D974" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12792,7 +12792,7 @@
         <v>1116</v>
       </c>
       <c r="D975" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
         <v>1117</v>
       </c>
       <c r="D976" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12810,7 +12810,7 @@
         <v>1118</v>
       </c>
       <c r="D977" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12819,7 +12819,7 @@
         <v>1119</v>
       </c>
       <c r="D978" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12828,7 +12828,7 @@
         <v>1120</v>
       </c>
       <c r="D979" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12837,7 +12837,7 @@
         <v>1121</v>
       </c>
       <c r="D980" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12846,7 +12846,7 @@
         <v>1122</v>
       </c>
       <c r="D981" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12855,7 +12855,7 @@
         <v>1123</v>
       </c>
       <c r="D982" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12864,7 +12864,7 @@
         <v>1124</v>
       </c>
       <c r="D983" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
         <v>1125</v>
       </c>
       <c r="D984" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12882,7 +12882,7 @@
         <v>1126</v>
       </c>
       <c r="D985" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12891,7 +12891,7 @@
         <v>1127</v>
       </c>
       <c r="D986" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12900,7 +12900,7 @@
         <v>1128</v>
       </c>
       <c r="D987" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
         <v>1129</v>
       </c>
       <c r="D988" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -12918,7 +12918,7 @@
         <v>1130</v>
       </c>
       <c r="D989" t="str">
-        <f>CONCATENATE("H2-TO-ELECT", "_CCS")</f>
+        <f t="shared" si="37"/>
         <v>H2-TO-ELECT_CCS</v>
       </c>
     </row>
@@ -14645,7 +14645,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -14718,8 +14718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
